--- a/ResultadoEleicoesDistritos/GUARDA_FIGUEIRA DE CASTELO RODRIGO.xlsx
+++ b/ResultadoEleicoesDistritos/GUARDA_FIGUEIRA DE CASTELO RODRIGO.xlsx
@@ -597,64 +597,64 @@
         <v>1557</v>
       </c>
       <c r="H2" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I2" t="n">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="J2" t="n">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N2" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S2" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="T2" t="n">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="U2" t="n">
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>996</v>
+        <v>1036</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
